--- a/vyuziti_technickeho_a_programoveho_vybaveni.xlsx
+++ b/vyuziti_technickeho_a_programoveho_vybaveni.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawix\Documents\dkveton\Maturita_SPS\Maturita_B4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E3028-752A-4364-B441-662D5FD4493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,212 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>Číselné soustavy, binární aritmetické operace, převody mezi soustavami (10, 2, 16), doplňkový a aditivní kód, zobrazení čísla bez a se znaménkem (8bit), přetečení.</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>Periferní a komunikační rozhraní MCU a jednodeskových počítačů, úsporný režim MCU.</t>
+  </si>
+  <si>
+    <t>Logické funkce NON, AND, OR a XOR, pravdivostní tabulka, UNDF, UNKF, Booleova algebra, poloviční a úplná sčítačka, de-multiplexor, porovnávací obvod.</t>
+  </si>
+  <si>
+    <t>Sekvenční obvody, D klopný obvod, registr, konečný automat typu Meally a Moore, vnitřní, stavy, přechodová a výstupní funkce, graf přechodů.</t>
+  </si>
+  <si>
+    <t>Von Neumanova architektura, Harvardská architektura počítače, architektura RISC a CISC, instrukční cyklus, zřetězení instrukcí, taxonomie sběrnic, paralelní, sériový, synchronní, asynchronní přenos dat, otevřený kolektor, třístavový budič.</t>
+  </si>
+  <si>
+    <t>Stavový registr MCIJ AVR, větvení programu, podprogramy, funkce zásobníku, obsluha a typy, přerušení.</t>
+  </si>
+  <si>
+    <t>Paměti, rozdělení podle přístupu, schopnosti zápisu, určení, provedení, závislosti na napětí, realizace pamětí, statické, synchronní čtení dynamické paměti, organizace paměťových, buněk, prokládání paměťových cyklů.</t>
+  </si>
+  <si>
+    <t>Pevné disky, fyzická a logická struktura, princip magnetického zápisu a čtení, SSD disky, parametry pevných disků, RAID.</t>
+  </si>
+  <si>
+    <t>Základní deska, čipová sada, BIOS, UEFI, program CMOS SETUP, skříně PC, zdroje napájení (napětí, tolerance, signály, barvy vodičů, konektory), chlazení, záložní zdroje</t>
+  </si>
+  <si>
+    <t>Komunikační rozhraní PC— USB, Ethernet, WiFi, Bluetooth, lrDA, ovládací zařízení — princip a parametry klávesnice, myš, trackpoint, touchpad, dotykové obrazovky, interaktivní tabule.</t>
+  </si>
+  <si>
+    <t>Grafické karty — princip, grafická rozhraní, GPU, parametry, zobrazovací jednotky — CRT, LCD, PDP, OLED (princip, parametry), datové projektory. Norma TCO, ICC profil, zvukový podsystém PC — zvukové karty, zvukové formáty, vzorkovací frekvence, datový tok, bitová hloubka, Shannonův-Nyquistův-Kotělnikův teorém</t>
+  </si>
+  <si>
+    <t>Dělení operačních systémů — prostředky výpočetního systému, funkce OS, struktura OS</t>
+  </si>
+  <si>
+    <t>Přidělování paměti — absolutní a relativní adresa, metody přidělování paměti</t>
+  </si>
+  <si>
+    <t>Souborové systémy — vlastnosti, omezení, druhy souborových systémů, žurnálování, kvóty</t>
+  </si>
+  <si>
+    <t>Struktura OS - jádro MS DOS, LINUXU, MS WINDOWS, systémové proměnné</t>
+  </si>
+  <si>
+    <t>Příkazy a práva OS —cd, dir, IS, chmod, echo, cat, touch, přístupová práva k souborům v Linuxu</t>
+  </si>
+  <si>
+    <t>Vývojové diagramy: vstup, výstup, podmínka, cyklus, začátek, konec</t>
+  </si>
+  <si>
+    <t>Tiskárny — jehličkové, inkoustové, laserové (princip, vlastnosti), barevné modely RGB a CMYK, jazyky POSTSCRIPT a PCL, DPI, CPI. Skenery, princip skenování, OCR programy, snímání obrazu, kamery, fotoaparáty.</t>
+  </si>
+  <si>
+    <t>Stránkování, segmentace, stránkování a segmentace, Reálný a chráněný režim — rozlišení stránky a segmentu, popis, vysvětlení, použití reálného chráněného režimu, jejich porovnání, adresace, přerušení</t>
+  </si>
+  <si>
+    <t>POST, Multitasking a systém přerušení - průběh POSTU, BIOS, UEFI, secure boot, druhy přerušení, druhy multitaskingu</t>
+  </si>
+  <si>
+    <t>Synchronizace procesů — kritická sekce, producent - konzument, čtenáři a písaři, 5 hladových filosofů</t>
+  </si>
+  <si>
+    <t>Proměnné, datové typy, objekty</t>
+  </si>
+  <si>
+    <t>Vstup, výstupy, logické a matematické operátory</t>
+  </si>
+  <si>
+    <t>Kolekce: pole, zásobník, fronta, seznam</t>
+  </si>
+  <si>
+    <t>Podmínky a cykly: while, for, if v různých jazycích, pass, continue, break</t>
+  </si>
+  <si>
+    <t>OOP: konstruktor (výchozí, implicitní, obecný), výchozí parametry, metody, druhy dědičnosti</t>
+  </si>
+  <si>
+    <t>OOP: Třída a instance třídy, modifikátory přístupu</t>
+  </si>
+  <si>
+    <t>Výjimky, ladění, druhy a ošetření chyb: try, except, chybová událost</t>
+  </si>
+  <si>
+    <t>OOP: rozdíly oproti procedurálnímu paradigmatu, návrh objektů, zapouzdření, polymorfismus</t>
+  </si>
+  <si>
+    <t>Kompilovaný a interpretovaný program: popis, přenositelnost, vykonávání programu, příklady jazyků; kompilační proces, skriptovací jazyk</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,11 +255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +537,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>